--- a/data/VEGA_QSAR_modeli/TU_results.xlsx
+++ b/data/VEGA_QSAR_modeli/TU_results.xlsx
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar</t>
+          <t>Kuželj</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar</t>
+          <t>Brod na Kupi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>centar Karlovca</t>
+          <t>Karlovac</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Zagrebačka županija</t>
+          <t>ZG županija</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok)</t>
+          <t>Jurovo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ozalj</t>
+          <t>HE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Metković-Doljani</t>
+          <t>Doljani</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Metković-Unka</t>
+          <t>Unka</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Metković-most</t>
+          <t>most</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište)</t>
+          <t>Petrinja</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad)</t>
+          <t>Sisak</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad)</t>
+          <t>Sisak</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana)</t>
+          <t>Zagreb</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2592,12 +2592,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Prošćansko jezero</t>
+          <t>Prošćansko</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plitvička jezera </t>
+          <t>Plitvice</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić</t>
+          <t>Slapić</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište</t>
+          <t>Duga Resa</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište</t>
+          <t>Ozalj</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke</t>
+          <t>Slunj</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište</t>
+          <t>Karlovac</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3058,7 +3058,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3170,7 +3170,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3282,7 +3282,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3506,7 +3506,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4066,7 +4066,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -4178,7 +4178,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4290,7 +4290,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -4402,7 +4402,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -4514,7 +4514,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -4962,7 +4962,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -5074,7 +5074,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -5186,7 +5186,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -5298,7 +5298,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -5410,7 +5410,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -5522,7 +5522,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -5634,7 +5634,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -5746,7 +5746,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -5858,7 +5858,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -5970,7 +5970,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -6082,7 +6082,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -6390,7 +6390,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6502,7 +6502,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6614,7 +6614,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6838,7 +6838,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -7398,7 +7398,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -7510,7 +7510,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -7622,7 +7622,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -7734,7 +7734,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -7846,7 +7846,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -8294,7 +8294,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -8406,7 +8406,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -8518,7 +8518,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -8630,7 +8630,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -8742,7 +8742,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -8854,7 +8854,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -8966,7 +8966,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -9078,7 +9078,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -9190,7 +9190,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -9302,7 +9302,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -9414,7 +9414,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -9722,7 +9722,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -9834,7 +9834,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -9946,7 +9946,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -10170,7 +10170,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -10730,7 +10730,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -10842,7 +10842,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -10954,7 +10954,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -11066,7 +11066,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -11178,7 +11178,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -11626,7 +11626,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -11738,7 +11738,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -11850,7 +11850,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -11962,7 +11962,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -12074,7 +12074,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -12186,7 +12186,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -12298,7 +12298,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -12410,7 +12410,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -12522,7 +12522,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -12634,7 +12634,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -12746,7 +12746,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="B29" t="n">
